--- a/DateBase/orders/Nha Thu_2025-11-22.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +523,96 @@
       <c r="C11" t="str">
         <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
       </c>
+      <c r="F11" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>607_康乃馨芙蓉_light orange_undefined_20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F14" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
+      <c r="F15" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>818_八卦草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -584,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0597157201510200</v>
+        <v>05971572015102015201520201010103100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-22.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +609,93 @@
       <c r="C21" t="str">
         <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>4</v>
+      </c>
+      <c r="C29" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>730_蝴蝶洋牡丹奶油黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05971572015102015201520201010103100</v>
+        <v>0597157201510201520152020101010310101010106461030100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-22.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-22.xlsx
@@ -690,7 +690,7 @@
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>730_蝴蝶洋牡丹奶油黄_butterfly  Ranunculus_undefined_1bunch</v>
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-22.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-22.xlsx
@@ -692,6 +692,9 @@
       <c r="C31" t="str">
         <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -753,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0597157201510201520152020101010310101010106461030100</v>
+        <v>0597157201510201520152020101010310101010106461030105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-22.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,9 +696,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>5</v>
+      </c>
+      <c r="C33" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>6</v>
+      </c>
+      <c r="C40" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -756,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0597157201510201520152020101010310101010106461030105</v>
+        <v>059715720151020152015202010101031010101010646103010553015101515105100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-22.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-22.xlsx
@@ -778,6 +778,9 @@
       <c r="C41" t="str">
         <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -839,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>059715720151020152015202010101031010101010646103010553015101515105100</v>
+        <v>059715720151020152015202010101031010101010646103010553015101515105105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-22.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-22.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -782,9 +782,41 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L45"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -842,7 +874,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>059715720151020152015202010101031010101010646103010553015101515105105</v>
+        <v>0597157201510201520152020101010310101010106461030105530151015151051051051020</v>
       </c>
     </row>
   </sheetData>
